--- a/data/trans_camb/P1802-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1802-Provincia-trans_camb.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P1802-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1802-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,6 +520,12 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,33 +540,69 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2016</t>
+          <t>2012/2007</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2016</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2016</t>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012/2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012/2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
         </is>
       </c>
     </row>
@@ -542,6 +612,12 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,17 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,51</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>31,22</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>25,52</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>39,84</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>22,99</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>35,62</t>
         </is>
       </c>
     </row>
@@ -584,12 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,23; 26,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,67; 36,56</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>20,82; 30,91</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>35,65; 44,19</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>19,34; 26,53</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>32,46; 39,55</t>
         </is>
       </c>
     </row>
@@ -607,12 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -638,6 +804,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -657,12 +853,42 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>15,52</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>11,01</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>19,42</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>17,38</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>17,51</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>14,29</t>
         </is>
       </c>
     </row>
@@ -680,12 +906,42 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,41; 18,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,35; 14,57</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>16,01; 23,29</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>14,49; 20,53</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>15,13; 20,07</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>12,2; 16,53</t>
         </is>
       </c>
     </row>
@@ -703,12 +959,42 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -734,6 +1020,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -753,12 +1069,42 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>7,49</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>22,59</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9,92</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>26,26</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8,74</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>24,56</t>
         </is>
       </c>
     </row>
@@ -776,12 +1122,42 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,9; 10,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,5; 27,3</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>7,13; 14,21</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>22,58; 30,82</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>6,56; 11,28</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>21,96; 27,74</t>
         </is>
       </c>
     </row>
@@ -799,12 +1175,42 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -830,6 +1236,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -849,12 +1285,42 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>18,87</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>16,38</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>22,12</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>13,57</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>20,53</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>14,78</t>
         </is>
       </c>
     </row>
@@ -872,12 +1338,42 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,8; 23,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,94; 21,91</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>17,83; 26,37</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>10,86; 16,82</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>17,74; 23,64</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>12,23; 17,72</t>
         </is>
       </c>
     </row>
@@ -895,12 +1391,42 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -926,6 +1452,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -945,12 +1501,42 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
+          <t>18,71</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>13,06</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>18,36</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>5,47</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>18,53</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>8,95</t>
         </is>
       </c>
     </row>
@@ -968,12 +1554,42 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,61; 24,33</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,97; 18,7</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>13,64; 23,74</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>3,78; 7,78</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>15,07; 22,72</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>6,92; 11,99</t>
         </is>
       </c>
     </row>
@@ -991,12 +1607,42 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1022,6 +1668,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1041,12 +1717,42 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
+          <t>13,5</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>17,43</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>20,45</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>19,97</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>17,04</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>18,7</t>
         </is>
       </c>
     </row>
@@ -1064,12 +1770,42 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,58; 17,92</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,48; 21,54</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>16,27; 25,65</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>16,23; 24,14</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>14,05; 20,61</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>15,75; 21,7</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1823,42 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1118,6 +1884,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1137,12 +1933,42 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
+          <t>10,27</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>21,03</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr">
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>16,58</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>22,39</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>13,51</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>21,79</t>
         </is>
       </c>
     </row>
@@ -1160,12 +1986,42 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,0; 13,01</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,63; 24,79</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>13,89; 19,97</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>14,18; 26,98</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>11,74; 15,64</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>16,96; 24,65</t>
         </is>
       </c>
     </row>
@@ -1183,12 +2039,42 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1214,6 +2100,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1233,12 +2149,42 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
+          <t>14,54</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>11,84</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E32" s="2" t="inlineStr">
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>19,89</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>7,05</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>17,29</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>9,44</t>
         </is>
       </c>
     </row>
@@ -1256,12 +2202,42 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,15; 17,01</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,65; 29,68</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>17,2; 22,71</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>5,62; 8,66</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>15,16; 19,13</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>6,22; 19,08</t>
         </is>
       </c>
     </row>
@@ -1279,12 +2255,42 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1310,6 +2316,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1329,12 +2365,42 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
+          <t>14,37</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>16,89</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E36" s="2" t="inlineStr">
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>18,88</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>17,59</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>16,67</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>17,26</t>
         </is>
       </c>
     </row>
@@ -1352,12 +2418,42 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,19; 15,62</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,04; 21,97</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>17,52; 20,29</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>15,82; 18,79</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>15,76; 17,63</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>16,15; 19,12</t>
         </is>
       </c>
     </row>
@@ -1375,12 +2471,42 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1406,6 +2532,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1415,12 +2571,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_camb/P1802-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1802-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>31,22</t>
+          <t>30,27</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>39,84</t>
+          <t>39,33</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>35,62</t>
+          <t>34,63</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,67; 36,56</t>
+          <t>24,66; 36,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>35,65; 44,19</t>
+          <t>34,92; 43,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>32,46; 39,55</t>
+          <t>31,26; 38,88</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,01</t>
+          <t>10,61</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>17,38</t>
+          <t>17,3</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>14,29</t>
+          <t>13,94</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,35; 14,57</t>
+          <t>8,05; 14,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,49; 20,53</t>
+          <t>14,49; 20,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,2; 16,53</t>
+          <t>11,9; 16,18</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>22,59</t>
+          <t>22,21</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>26,26</t>
+          <t>26,22</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>24,56</t>
+          <t>24,32</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,5; 27,3</t>
+          <t>18,12; 26,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,58; 30,82</t>
+          <t>22,54; 30,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,96; 27,74</t>
+          <t>21,72; 27,43</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>16,38</t>
+          <t>16,47</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>13,57</t>
+          <t>11,31</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>14,78</t>
+          <t>13,36</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,94; 21,91</t>
+          <t>11,85; 22,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,86; 16,82</t>
+          <t>7,11; 15,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,23; 17,72</t>
+          <t>9,55; 16,43</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>13,06</t>
+          <t>12,92</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>5,47</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>8,95</t>
+          <t>8,97</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,97; 18,7</t>
+          <t>8,88; 18,44</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,78; 7,78</t>
+          <t>3,87; 7,95</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,92; 11,99</t>
+          <t>6,97; 11,91</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>17,43</t>
+          <t>17,34</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>19,97</t>
+          <t>19,84</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>18,7</t>
+          <t>18,56</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>13,48; 21,54</t>
+          <t>13,47; 21,55</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>16,23; 24,14</t>
+          <t>16,15; 23,97</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>15,75; 21,7</t>
+          <t>15,59; 21,57</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>21,03</t>
+          <t>20,6</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>22,39</t>
+          <t>19,67</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>21,79</t>
+          <t>20,06</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>17,63; 24,79</t>
+          <t>17,2; 24,48</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>14,18; 26,98</t>
+          <t>9,46; 26,82</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>16,96; 24,65</t>
+          <t>11,38; 24,0</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>11,84</t>
+          <t>30,93</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>7,05</t>
+          <t>7,13</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>9,44</t>
+          <t>20,56</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>5,65; 29,68</t>
+          <t>5,66; 66,82</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>5,62; 8,66</t>
+          <t>5,67; 8,73</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>6,22; 19,08</t>
+          <t>6,3; 50,22</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>16,89</t>
+          <t>21,87</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>17,59</t>
+          <t>17,18</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>17,26</t>
+          <t>19,46</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>15,04; 21,97</t>
+          <t>15,47; 42,06</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>15,82; 18,79</t>
+          <t>14,25; 18,72</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>16,15; 19,12</t>
+          <t>16,22; 28,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P1802-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1802-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,23; 26,07</t>
+          <t>15,75; 25,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,66; 36,17</t>
+          <t>24,55; 36,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,82; 30,91</t>
+          <t>20,69; 31,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>34,92; 43,88</t>
+          <t>35,0; 44,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,34; 26,53</t>
+          <t>19,41; 26,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>31,26; 38,88</t>
+          <t>30,95; 38,66</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,41; 18,94</t>
+          <t>12,55; 19,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,05; 14,13</t>
+          <t>7,83; 13,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,01; 23,29</t>
+          <t>16,28; 23,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,49; 20,39</t>
+          <t>14,66; 20,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,13; 20,07</t>
+          <t>15,25; 19,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,9; 16,18</t>
+          <t>11,95; 15,89</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,9; 10,5</t>
+          <t>4,95; 10,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,12; 26,89</t>
+          <t>17,93; 26,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,13; 14,21</t>
+          <t>6,67; 13,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,54; 30,8</t>
+          <t>22,59; 30,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,56; 11,28</t>
+          <t>6,75; 10,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,72; 27,43</t>
+          <t>21,62; 27,34</t>
         </is>
       </c>
     </row>
@@ -1338,12 +1338,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,8; 23,27</t>
+          <t>14,9; 23,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,85; 22,18</t>
+          <t>12,0; 21,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,83; 26,37</t>
+          <t>18,26; 26,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,11; 15,07</t>
+          <t>6,51; 14,79</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,74; 23,64</t>
+          <t>17,58; 23,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,55; 16,43</t>
+          <t>9,6; 16,81</t>
         </is>
       </c>
     </row>
@@ -1554,12 +1554,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>13,61; 24,33</t>
+          <t>13,65; 24,3</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,88; 18,44</t>
+          <t>8,84; 17,45</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1569,12 +1569,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>13,64; 23,74</t>
+          <t>13,34; 23,61</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,87; 7,95</t>
+          <t>3,9; 7,63</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1584,12 +1584,12 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>15,07; 22,72</t>
+          <t>15,17; 22,6</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,97; 11,91</t>
+          <t>6,85; 11,53</t>
         </is>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1770,12 +1770,12 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>9,58; 17,92</t>
+          <t>9,88; 18,16</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>13,47; 21,55</t>
+          <t>13,77; 22,39</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>16,27; 25,65</t>
+          <t>16,32; 25,59</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>16,15; 23,97</t>
+          <t>16,41; 23,91</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1800,12 +1800,12 @@
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>14,05; 20,61</t>
+          <t>14,0; 20,54</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>15,59; 21,57</t>
+          <t>15,89; 21,76</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1986,12 +1986,12 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>8,0; 13,01</t>
+          <t>7,99; 12,82</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>17,2; 24,48</t>
+          <t>17,38; 24,39</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2001,12 +2001,12 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>13,89; 19,97</t>
+          <t>13,64; 19,65</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>9,46; 26,82</t>
+          <t>9,9; 26,56</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2016,12 +2016,12 @@
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>11,74; 15,64</t>
+          <t>11,6; 15,63</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>11,38; 24,0</t>
+          <t>12,59; 24,23</t>
         </is>
       </c>
     </row>
@@ -2202,12 +2202,12 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>12,15; 17,01</t>
+          <t>11,94; 17,19</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>5,66; 66,82</t>
+          <t>5,78; 69,55</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2217,12 +2217,12 @@
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>17,2; 22,71</t>
+          <t>16,98; 23,08</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>5,67; 8,73</t>
+          <t>5,65; 8,82</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2232,12 +2232,12 @@
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>15,16; 19,13</t>
+          <t>15,48; 19,25</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>6,3; 50,22</t>
+          <t>6,36; 50,33</t>
         </is>
       </c>
     </row>
@@ -2418,12 +2418,12 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>13,19; 15,62</t>
+          <t>13,21; 15,59</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>15,47; 42,06</t>
+          <t>15,51; 39,21</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2433,12 +2433,12 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>17,52; 20,29</t>
+          <t>17,61; 20,31</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>14,25; 18,72</t>
+          <t>14,19; 18,83</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2448,12 +2448,12 @@
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>15,76; 17,63</t>
+          <t>15,7; 17,55</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>16,22; 28,47</t>
+          <t>16,13; 29,32</t>
         </is>
       </c>
     </row>
